--- a/20210830 TV_Pmod_Mura_Correction_Checker/templates/Mura_List_Template.xlsx
+++ b/20210830 TV_Pmod_Mura_Correction_Checker/templates/Mura_List_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pj_00_codelib\2019_pypj\20210603 AG85_SET_LED_MURA_Soma\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pj_00_codelib\2019_pypj\20210830 TV_Pmod_Mura_Correction_Checker\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1E89A1-6BDD-47BB-A6A6-EA6C7AA66F92}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F872AA40-2788-49DE-A45A-BC8E2C1D2F8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D4E09A-91B6-4E2C-B25A-5F99B774EF7E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B4D4E09A-91B6-4E2C-B25A-5F99B774EF7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Mura" sheetId="5" r:id="rId1"/>
@@ -50,10 +50,10 @@
     <t>No</t>
   </si>
   <si>
-    <t>Before Adj (87.5IRE)</t>
+    <t>Before Adj</t>
   </si>
   <si>
-    <t>After Adj (87.5IRE)</t>
+    <t>After Adj</t>
   </si>
 </sst>
 </file>
@@ -681,511 +681,657 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A59" s="1"/>
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A61" s="1"/>
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A65" s="1"/>
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A66" s="1"/>
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
       <c r="B66" s="1"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A68" s="1"/>
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
       <c r="B68" s="1"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A70" s="1"/>
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A72" s="1"/>
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A75" s="1"/>
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A76" s="1"/>
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A77" s="1"/>
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A78" s="1"/>
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A79" s="1"/>
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A80" s="1"/>
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
       <c r="B80" s="1"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A81" s="1"/>
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
       <c r="B81" s="1"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A82" s="1"/>
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
       <c r="B82" s="1"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A84" s="1"/>
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
       <c r="B84" s="1"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A85" s="1"/>
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
       <c r="B85" s="1"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A86" s="1"/>
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
       <c r="B86" s="1"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A88" s="1"/>
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A89" s="1"/>
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A90" s="1"/>
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A91" s="1"/>
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A92" s="1"/>
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A93" s="1"/>
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A94" s="1"/>
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:5" ht="104.5" customHeight="1">
-      <c r="A95" s="1"/>
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -6256,18 +6402,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6403,6 +6549,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F41D49ED-79B7-4863-9DEC-F62907511A8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F8C8680-691F-4720-AA82-B005FA03A92B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="af9c27c0-2f13-47d1-9e55-3cdb795bbc25"/>
@@ -6414,14 +6568,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F41D49ED-79B7-4863-9DEC-F62907511A8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/20210830 TV_Pmod_Mura_Correction_Checker/templates/Mura_List_Template.xlsx
+++ b/20210830 TV_Pmod_Mura_Correction_Checker/templates/Mura_List_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pj_00_codelib\2019_pypj\20210830 TV_Pmod_Mura_Correction_Checker\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F872AA40-2788-49DE-A45A-BC8E2C1D2F8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6996239-1A10-4722-B600-FB37D7884033}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B4D4E09A-91B6-4E2C-B25A-5F99B774EF7E}"/>
   </bookViews>
@@ -27,10 +27,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>SER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
   <si>
     <t>Critical (C) - An event that, if it occurred, would cause program failure (inability to achieve minimum acceptable requirements).</t>
   </si>
@@ -55,22 +51,18 @@
   <si>
     <t>After Adj</t>
   </si>
+  <si>
+    <t>Log</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
@@ -136,7 +128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -465,7 +457,7 @@
   <dimension ref="A1:E810"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -478,16 +470,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E1" s="6"/>
     </row>
@@ -6360,7 +6352,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -6368,7 +6360,7 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -6376,7 +6368,7 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -6384,7 +6376,7 @@
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:2">
@@ -6392,7 +6384,7 @@
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6402,18 +6394,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6549,14 +6541,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F41D49ED-79B7-4863-9DEC-F62907511A8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F8C8680-691F-4720-AA82-B005FA03A92B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="af9c27c0-2f13-47d1-9e55-3cdb795bbc25"/>
@@ -6568,6 +6552,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F41D49ED-79B7-4863-9DEC-F62907511A8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
